--- a/meta/2-2-2.xlsx
+++ b/meta/2-2-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NDATA11\gwilll$\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8480AFBE-CD36-441A-91E7-2CE636ED161B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BA31E-4DC5-4CD3-81E3-38B5FA435FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{E8CBF178-F9B6-4D2F-B19F-7114C125E7F3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8CBF178-F9B6-4D2F-B19F-7114C125E7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>National metadata</t>
   </si>
@@ -256,9 +256,6 @@
     <t>NCMP -Overweight (including obesity)</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>line</t>
   </si>
   <si>
@@ -308,6 +305,12 @@
   </si>
   <si>
     <t>Indicator content</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
 </sst>
 </file>
@@ -708,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B99C-8310-4D26-9C85-BA72A6D5EBD8}">
   <dimension ref="A1:B66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -735,7 +738,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -743,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -751,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -759,7 +762,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -767,7 +770,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -787,7 +790,7 @@
         <v>53</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -795,7 +798,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -803,7 +806,7 @@
         <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -811,7 +814,7 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -819,7 +822,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -827,7 +830,7 @@
         <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -841,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -849,7 +852,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -863,12 +866,12 @@
         <v>54</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="6"/>
     </row>
@@ -880,9 +883,11 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -966,9 +971,11 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
@@ -1052,7 +1059,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B45" s="8"/>
     </row>
@@ -1122,7 +1129,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="8"/>
     </row>
@@ -1187,12 +1194,15 @@
       <c r="B66" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B20:B21" xr:uid="{FA6F42F4-E31E-4A13-A3CB-0DF71CA102A8}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{FA6F42F4-E31E-4A13-A3CB-0DF71CA102A8}">
       <formula1>"'true, 'false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{D2F7AFEC-CDCD-4216-95DB-AC282F64B314}">
       <formula1>"line,bar"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B20 B23 B34" xr:uid="{301E55EB-4893-4F78-9644-A0742ACFC44D}">
+      <formula1>"'True, 'False"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/meta/2-2-2.xlsx
+++ b/meta/2-2-2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NDATA11\gwilll$\My Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5BA31E-4DC5-4CD3-81E3-38B5FA435FF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52E3F5F3-74D3-4776-9EBA-7342E4E592FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E8CBF178-F9B6-4D2F-B19F-7114C125E7F3}"/>
+    <workbookView xWindow="-110" yWindow="0" windowWidth="21600" windowHeight="11060" xr2:uid="{E8CBF178-F9B6-4D2F-B19F-7114C125E7F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2-2-2" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>National metadata</t>
   </si>
@@ -256,6 +256,9 @@
     <t>NCMP -Overweight (including obesity)</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>line</t>
   </si>
   <si>
@@ -307,10 +310,22 @@
     <t>Indicator content</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>true</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>Source 1 link to data source text</t>
+  </si>
+  <si>
+    <t>Source 2 link to data source text</t>
+  </si>
+  <si>
+    <t>Source 3 link to data source text</t>
+  </si>
+  <si>
+    <t>Source 4 link to data source text</t>
   </si>
 </sst>
 </file>
@@ -386,14 +401,14 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -709,500 +724,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43A4B99C-8310-4D26-9C85-BA72A6D5EBD8}">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118.453125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="6" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="6"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="5">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="B31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>91</v>
+      <c r="B34" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="5">
-        <v>43748</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="8"/>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+      <c r="B49" s="4"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="B50" s="4"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="1"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="B51" s="4"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="1"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="B52" s="4"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="4"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="B54" s="4"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="1"/>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="B55" s="4"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="1"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="B56" s="4"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="1"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="B57" s="4"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="1"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="8"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="1"/>
+      <c r="B58" s="4"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+      <c r="B63" s="4"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="4"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B62" s="1"/>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="1"/>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B64" s="1"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B65" s="1"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+      <c r="B69" s="4"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="1"/>
+      <c r="B70" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21" xr:uid="{FA6F42F4-E31E-4A13-A3CB-0DF71CA102A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35 B47 B59" xr:uid="{FA6F42F4-E31E-4A13-A3CB-0DF71CA102A8}">
       <formula1>"'true, 'false"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{D2F7AFEC-CDCD-4216-95DB-AC282F64B314}">
       <formula1>"line,bar"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B20 B23 B34" xr:uid="{301E55EB-4893-4F78-9644-A0742ACFC44D}">
-      <formula1>"'True, 'False"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B20" xr:uid="{9280C8E4-BC92-4441-AB6E-D41666FA261D}">
+      <formula1>"true, false"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
